--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb3-Tgfbr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H2">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J2">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N2">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q2">
-        <v>8.683585512769998</v>
+        <v>21.81809357560589</v>
       </c>
       <c r="R2">
-        <v>78.15226961492999</v>
+        <v>196.362842180453</v>
       </c>
       <c r="S2">
-        <v>0.0009070164047113169</v>
+        <v>0.004841192288694208</v>
       </c>
       <c r="T2">
-        <v>0.0009070164047113169</v>
+        <v>0.004841192288694209</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H3">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J3">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q3">
-        <v>16.49209938584856</v>
+        <v>27.46600316200878</v>
       </c>
       <c r="R3">
-        <v>148.428894472637</v>
+        <v>247.194028458079</v>
       </c>
       <c r="S3">
-        <v>0.001722629974576296</v>
+        <v>0.00609440060601056</v>
       </c>
       <c r="T3">
-        <v>0.001722629974576296</v>
+        <v>0.006094400606010561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H4">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J4">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N4">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q4">
-        <v>79.47877624327411</v>
+        <v>64.06435271284312</v>
       </c>
       <c r="R4">
-        <v>715.3089861894671</v>
+        <v>576.5791744155881</v>
       </c>
       <c r="S4">
-        <v>0.008301703688299836</v>
+        <v>0.01421516729951</v>
       </c>
       <c r="T4">
-        <v>0.008301703688299836</v>
+        <v>0.01421516729951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H5">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J5">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N5">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q5">
-        <v>16.75607182759022</v>
+        <v>15.29451939931022</v>
       </c>
       <c r="R5">
-        <v>150.804646448312</v>
+        <v>137.650674593792</v>
       </c>
       <c r="S5">
-        <v>0.001750202379396781</v>
+        <v>0.003393683738620065</v>
       </c>
       <c r="T5">
-        <v>0.001750202379396781</v>
+        <v>0.003393683738620066</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H6">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J6">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N6">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q6">
-        <v>124.4105517390669</v>
+        <v>257.7453839705227</v>
       </c>
       <c r="R6">
-        <v>1119.694965651602</v>
+        <v>2319.708455734704</v>
       </c>
       <c r="S6">
-        <v>0.01299490989989961</v>
+        <v>0.05719083388292649</v>
       </c>
       <c r="T6">
-        <v>0.01299490989989961</v>
+        <v>0.0571908338829265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.072949666666667</v>
+        <v>1.786894333333334</v>
       </c>
       <c r="H7">
-        <v>3.218849</v>
+        <v>5.360683000000001</v>
       </c>
       <c r="I7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="J7">
-        <v>0.03746460787340014</v>
+        <v>0.1034645396347048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N7">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q7">
-        <v>112.8572418147843</v>
+        <v>79.90153464787478</v>
       </c>
       <c r="R7">
-        <v>1015.715176333059</v>
+        <v>719.113811830873</v>
       </c>
       <c r="S7">
-        <v>0.0117881455265163</v>
+        <v>0.01772926181894343</v>
       </c>
       <c r="T7">
-        <v>0.0117881455265163</v>
+        <v>0.01772926181894344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>37.675054</v>
       </c>
       <c r="I8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J8">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N8">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q8">
-        <v>101.63712342742</v>
+        <v>153.3382693283682</v>
       </c>
       <c r="R8">
-        <v>914.7341108467799</v>
+        <v>1380.044423955314</v>
       </c>
       <c r="S8">
-        <v>0.01061618361917093</v>
+        <v>0.03402405643104393</v>
       </c>
       <c r="T8">
-        <v>0.01061618361917093</v>
+        <v>0.03402405643104394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>37.675054</v>
       </c>
       <c r="I9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J9">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q9">
-        <v>193.0319610939225</v>
+        <v>193.0319610939224</v>
       </c>
       <c r="R9">
         <v>1737.287649845302</v>
       </c>
       <c r="S9">
-        <v>0.02016254173904417</v>
+        <v>0.0428316451334803</v>
       </c>
       <c r="T9">
-        <v>0.02016254173904417</v>
+        <v>0.04283164513348031</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>37.675054</v>
       </c>
       <c r="I10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J10">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N10">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q10">
-        <v>930.260222464387</v>
+        <v>450.2463488199938</v>
       </c>
       <c r="R10">
-        <v>8372.342002179483</v>
+        <v>4052.217139379944</v>
       </c>
       <c r="S10">
-        <v>0.09716738335619206</v>
+        <v>0.09990465685586583</v>
       </c>
       <c r="T10">
-        <v>0.09716738335619206</v>
+        <v>0.09990465685586584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>37.675054</v>
       </c>
       <c r="I11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J11">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N11">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q11">
-        <v>196.1216294807058</v>
+        <v>107.4903784224995</v>
       </c>
       <c r="R11">
-        <v>1765.094665326352</v>
+        <v>967.413405802496</v>
       </c>
       <c r="S11">
-        <v>0.02048526325860648</v>
+        <v>0.02385091939057632</v>
       </c>
       <c r="T11">
-        <v>0.02048526325860648</v>
+        <v>0.02385091939057633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>37.675054</v>
       </c>
       <c r="I12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J12">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N12">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q12">
-        <v>1456.164689595299</v>
+        <v>1811.442918624394</v>
       </c>
       <c r="R12">
-        <v>13105.48220635769</v>
+        <v>16302.98626761955</v>
       </c>
       <c r="S12">
-        <v>0.152099067773559</v>
+        <v>0.4019390355378756</v>
       </c>
       <c r="T12">
-        <v>0.152099067773559</v>
+        <v>0.4019390355378756</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>37.675054</v>
       </c>
       <c r="I13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684146</v>
       </c>
       <c r="J13">
-        <v>0.4385049204604426</v>
+        <v>0.7271521404684147</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N13">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q13">
-        <v>1320.938844805413</v>
+        <v>561.5505771450304</v>
       </c>
       <c r="R13">
-        <v>11888.44960324871</v>
+        <v>5053.955194305274</v>
       </c>
       <c r="S13">
-        <v>0.1379744807138701</v>
+        <v>0.1246018271195727</v>
       </c>
       <c r="T13">
-        <v>0.1379744807138701</v>
+        <v>0.1246018271195727</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H14">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J14">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N14">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q14">
-        <v>2.234235706429999</v>
+        <v>2.773186290164333</v>
       </c>
       <c r="R14">
-        <v>20.10812135786999</v>
+        <v>24.958676611479</v>
       </c>
       <c r="S14">
-        <v>0.0002333700099738354</v>
+        <v>0.000615339192516193</v>
       </c>
       <c r="T14">
-        <v>0.0002333700099738354</v>
+        <v>0.0006153391925161932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H15">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J15">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q15">
-        <v>4.243320603875889</v>
+        <v>3.491063192599666</v>
       </c>
       <c r="R15">
-        <v>38.189885434883</v>
+        <v>31.419568733397</v>
       </c>
       <c r="S15">
-        <v>0.0004432226057433315</v>
+        <v>0.0007746280924495646</v>
       </c>
       <c r="T15">
-        <v>0.0004432226057433315</v>
+        <v>0.0007746280924495647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H16">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J16">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N16">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q16">
-        <v>20.44942374609478</v>
+        <v>8.142892229142666</v>
       </c>
       <c r="R16">
-        <v>184.044813714853</v>
+        <v>73.286030062284</v>
       </c>
       <c r="S16">
-        <v>0.002135979749070779</v>
+        <v>0.001806817214839942</v>
       </c>
       <c r="T16">
-        <v>0.002135979749070779</v>
+        <v>0.001806817214839943</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H17">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J17">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N17">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q17">
-        <v>4.311239167467555</v>
+        <v>1.944008140117333</v>
       </c>
       <c r="R17">
-        <v>38.80115250720799</v>
+        <v>17.496073261056</v>
       </c>
       <c r="S17">
-        <v>0.0004503168240557414</v>
+        <v>0.0004313537837062582</v>
       </c>
       <c r="T17">
-        <v>0.0004503168240557414</v>
+        <v>0.0004313537837062582</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H18">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J18">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N18">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q18">
-        <v>32.01010648692422</v>
+        <v>32.76069756980799</v>
       </c>
       <c r="R18">
-        <v>288.0909583823179</v>
+        <v>294.846278128272</v>
       </c>
       <c r="S18">
-        <v>0.003343514226640566</v>
+        <v>0.007269234403895126</v>
       </c>
       <c r="T18">
-        <v>0.003343514226640566</v>
+        <v>0.007269234403895127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2760636666666667</v>
+        <v>0.227123</v>
       </c>
       <c r="H19">
-        <v>0.8281909999999999</v>
+        <v>0.681369</v>
       </c>
       <c r="I19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448586</v>
       </c>
       <c r="J19">
-        <v>0.009639424234960735</v>
+        <v>0.01315084848448587</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N19">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q19">
-        <v>29.03750749284233</v>
+        <v>10.15587542883767</v>
       </c>
       <c r="R19">
-        <v>261.3375674355809</v>
+        <v>91.40287885953899</v>
       </c>
       <c r="S19">
-        <v>0.003033020819476483</v>
+        <v>0.00225347579707878</v>
       </c>
       <c r="T19">
-        <v>0.003033020819476483</v>
+        <v>0.002253475797078781</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H20">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J20">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N20">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q20">
-        <v>112.60452352856</v>
+        <v>29.67938433656155</v>
       </c>
       <c r="R20">
-        <v>1013.44071175704</v>
+        <v>267.114459029054</v>
       </c>
       <c r="S20">
-        <v>0.0117617486388437</v>
+        <v>0.006585525269907243</v>
       </c>
       <c r="T20">
-        <v>0.01176174863884369</v>
+        <v>0.006585525269907244</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H21">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J21">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>46.112413</v>
       </c>
       <c r="O21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q21">
-        <v>213.8615426309929</v>
+        <v>37.36229571156911</v>
       </c>
       <c r="R21">
-        <v>1924.753883678936</v>
+        <v>336.260661404122</v>
       </c>
       <c r="S21">
-        <v>0.02233822966537498</v>
+        <v>0.008290277849435711</v>
       </c>
       <c r="T21">
-        <v>0.02233822966537498</v>
+        <v>0.008290277849435711</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H22">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J22">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N22">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q22">
-        <v>1030.642206073242</v>
+        <v>87.14741917522045</v>
       </c>
       <c r="R22">
-        <v>9275.779854659177</v>
+        <v>784.326772576984</v>
       </c>
       <c r="S22">
-        <v>0.1076524653234047</v>
+        <v>0.0193370430018867</v>
       </c>
       <c r="T22">
-        <v>0.1076524653234047</v>
+        <v>0.0193370430018867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H23">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J23">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N23">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q23">
-        <v>217.2846091722596</v>
+        <v>20.80529712287289</v>
       </c>
       <c r="R23">
-        <v>1955.561482550336</v>
+        <v>187.247674105856</v>
       </c>
       <c r="S23">
-        <v>0.0226957752325582</v>
+        <v>0.004616464020846376</v>
       </c>
       <c r="T23">
-        <v>0.02269577523255819</v>
+        <v>0.004616464020846376</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H24">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J24">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N24">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q24">
-        <v>1613.295669156606</v>
+        <v>350.6137823328746</v>
       </c>
       <c r="R24">
-        <v>14519.66102240945</v>
+        <v>3155.524040995872</v>
       </c>
       <c r="S24">
-        <v>0.1685116862640287</v>
+        <v>0.07779729853380125</v>
       </c>
       <c r="T24">
-        <v>0.1685116862640287</v>
+        <v>0.07779729853380125</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.91349066666667</v>
+        <v>2.430731333333334</v>
       </c>
       <c r="H25">
-        <v>41.740472</v>
+        <v>7.292194</v>
       </c>
       <c r="I25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="J25">
-        <v>0.4858228565336982</v>
+        <v>0.1407439117621684</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N25">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q25">
-        <v>1463.477951891261</v>
+        <v>108.6909059069571</v>
       </c>
       <c r="R25">
-        <v>13171.30156702135</v>
+        <v>978.2181531626139</v>
       </c>
       <c r="S25">
-        <v>0.1528629514094879</v>
+        <v>0.02411730308629113</v>
       </c>
       <c r="T25">
-        <v>0.1528629514094879</v>
+        <v>0.02411730308629113</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H26">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J26">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N26">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q26">
-        <v>0.68375315715</v>
+        <v>1.931164019626111</v>
       </c>
       <c r="R26">
-        <v>6.15377841435</v>
+        <v>17.380476176635</v>
       </c>
       <c r="S26">
-        <v>7.14192690791357E-05</v>
+        <v>0.0004285038162303332</v>
       </c>
       <c r="T26">
-        <v>7.14192690791357E-05</v>
+        <v>0.0004285038162303332</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H27">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J27">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>46.112413</v>
       </c>
       <c r="O27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q27">
-        <v>1.298602404101667</v>
+        <v>2.431072031367222</v>
       </c>
       <c r="R27">
-        <v>11.687421636915</v>
+        <v>21.879648282305</v>
       </c>
       <c r="S27">
-        <v>0.0001356413985888233</v>
+        <v>0.0005394278437174742</v>
       </c>
       <c r="T27">
-        <v>0.0001356413985888233</v>
+        <v>0.0005394278437174742</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H28">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J28">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N28">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q28">
-        <v>6.258228712418335</v>
+        <v>5.670466691828889</v>
       </c>
       <c r="R28">
-        <v>56.32405841176502</v>
+        <v>51.03420022645999</v>
       </c>
       <c r="S28">
-        <v>0.000653683446572994</v>
+        <v>0.001258213488114854</v>
       </c>
       <c r="T28">
-        <v>0.0006536834465729939</v>
+        <v>0.001258213488114854</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H29">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J29">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N29">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q29">
-        <v>1.319387826226667</v>
+        <v>1.353749146737778</v>
       </c>
       <c r="R29">
-        <v>11.87449043604</v>
+        <v>12.18374232064</v>
       </c>
       <c r="S29">
-        <v>0.0001378124739837163</v>
+        <v>0.0003003818783388501</v>
       </c>
       <c r="T29">
-        <v>0.0001378124739837163</v>
+        <v>0.0003003818783388501</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H30">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J30">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N30">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q30">
-        <v>9.796196215176668</v>
+        <v>22.81357030685333</v>
       </c>
       <c r="R30">
-        <v>88.16576593659001</v>
+        <v>205.32213276168</v>
       </c>
       <c r="S30">
-        <v>0.001023230629544616</v>
+        <v>0.005062077502986163</v>
       </c>
       <c r="T30">
-        <v>0.001023230629544616</v>
+        <v>0.005062077502986163</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.08448500000000002</v>
+        <v>0.1581616666666667</v>
       </c>
       <c r="H31">
-        <v>0.253455</v>
+        <v>0.474485</v>
       </c>
       <c r="I31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="J31">
-        <v>0.002949996159668451</v>
+        <v>0.009157857699955935</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N31">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q31">
-        <v>8.886478435045001</v>
+        <v>7.072248007837222</v>
       </c>
       <c r="R31">
-        <v>79.978305915405</v>
+        <v>63.650232070535</v>
       </c>
       <c r="S31">
-        <v>0.0009282089418991661</v>
+        <v>0.001569253170568261</v>
       </c>
       <c r="T31">
-        <v>0.0009282089418991659</v>
+        <v>0.001569253170568261</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H32">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I32">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J32">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N32">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q32">
-        <v>5.937811639199999</v>
+        <v>1.334987310995</v>
       </c>
       <c r="R32">
-        <v>53.44030475279999</v>
+        <v>12.014885798955</v>
       </c>
       <c r="S32">
-        <v>0.0006202152966559777</v>
+        <v>0.0002962188356694741</v>
       </c>
       <c r="T32">
-        <v>0.0006202152966559776</v>
+        <v>0.0002962188356694742</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H33">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I33">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J33">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>46.112413</v>
       </c>
       <c r="O33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q33">
-        <v>11.27725172328</v>
+        <v>1.680566891785</v>
       </c>
       <c r="R33">
-        <v>101.49526550952</v>
+        <v>15.125102026065</v>
       </c>
       <c r="S33">
-        <v>0.001177929588881433</v>
+        <v>0.0003728991008747381</v>
       </c>
       <c r="T33">
-        <v>0.001177929588881433</v>
+        <v>0.0003728991008747382</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H34">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I34">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J34">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N34">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q34">
-        <v>54.34736629848</v>
+        <v>3.91991617702</v>
       </c>
       <c r="R34">
-        <v>489.12629668632</v>
+        <v>35.27924559318</v>
       </c>
       <c r="S34">
-        <v>0.005676681908997741</v>
+        <v>0.0008697857996967507</v>
       </c>
       <c r="T34">
-        <v>0.00567668190899774</v>
+        <v>0.0008697857996967509</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H35">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I35">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J35">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N35">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q35">
-        <v>11.45775534528</v>
+        <v>0.9358282956799998</v>
       </c>
       <c r="R35">
-        <v>103.11979810752</v>
+        <v>8.42245466112</v>
       </c>
       <c r="S35">
-        <v>0.001196783522665242</v>
+        <v>0.0002076498898901641</v>
       </c>
       <c r="T35">
-        <v>0.001196783522665242</v>
+        <v>0.0002076498898901641</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H36">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I36">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J36">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N36">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q36">
-        <v>85.07158950287999</v>
+        <v>15.77070956616</v>
       </c>
       <c r="R36">
-        <v>765.6443055259199</v>
+        <v>141.93638609544</v>
       </c>
       <c r="S36">
-        <v>0.008885883272584407</v>
+        <v>0.003499345040131883</v>
       </c>
       <c r="T36">
-        <v>0.008885883272584405</v>
+        <v>0.003499345040131884</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.73368</v>
+        <v>0.109335</v>
       </c>
       <c r="H37">
-        <v>2.20104</v>
+        <v>0.328005</v>
       </c>
       <c r="I37">
-        <v>0.02561819473782978</v>
+        <v>0.006330701950270391</v>
       </c>
       <c r="J37">
-        <v>0.02561819473782977</v>
+        <v>0.006330701950270392</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N37">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q37">
-        <v>77.17146828695999</v>
+        <v>4.888948455294999</v>
       </c>
       <c r="R37">
-        <v>694.5432145826398</v>
+        <v>44.00053609765499</v>
       </c>
       <c r="S37">
-        <v>0.008060701148044979</v>
+        <v>0.001084803284007381</v>
       </c>
       <c r="T37">
-        <v>0.008060701148044977</v>
+        <v>0.001084803284007381</v>
       </c>
     </row>
   </sheetData>
